--- a/Git-Complete/work/super_help/検証.xlsx
+++ b/Git-Complete/work/super_help/検証.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\Git-Complete\Git-Complete\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\Git-Complete\Git-Complete\work\super_help\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828FF0F1-6919-444A-8B31-A75080FDC115}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545F839C-DA35-4971-B518-76984E79165B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="274">
   <si>
     <r>
       <rPr>
@@ -286,9 +286,6 @@
     <t>gitrevisions</t>
   </si>
   <si>
-    <t>gitsubmodules</t>
-  </si>
-  <si>
     <t>gittutorial</t>
   </si>
   <si>
@@ -1219,6 +1216,10 @@
     <rPh sb="19" eb="21">
       <t>ゴカン</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>gitsubmodules</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1792,8 +1793,8 @@
   <dimension ref="A1:AMN166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1826,25 +1827,25 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>264</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="18.75" hidden="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18.75">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1862,10 +1863,10 @@
         <v>9</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="5" t="str">
@@ -1906,7 +1907,7 @@
         <v>case "gitweb" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" hidden="1">
+    <row r="4" spans="1:11" ht="18.75">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1924,10 +1925,10 @@
         <v>9</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="11" t="str">
@@ -1957,13 +1958,13 @@
         <v>9</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I5" s="11" t="str">
         <f t="shared" si="1"/>
@@ -1978,7 +1979,7 @@
         <v>"rerere",</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18.75" hidden="1">
+    <row r="6" spans="1:11" ht="18.75">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -1994,10 +1995,10 @@
         <v>9</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="11" t="str">
@@ -2009,7 +2010,7 @@
         <v>case "bugreport" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="18.75" hidden="1">
+    <row r="7" spans="1:11" ht="18.75">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -2025,10 +2026,10 @@
         <v>9</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="11" t="str">
@@ -2040,7 +2041,7 @@
         <v>case "count-objects" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75" hidden="1">
+    <row r="8" spans="1:11" ht="18.75">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -2056,10 +2057,10 @@
         <v>9</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="11" t="str">
@@ -2071,7 +2072,7 @@
         <v>case "difftool" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18.75" hidden="1">
+    <row r="9" spans="1:11" ht="18.75">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -2087,10 +2088,10 @@
         <v>9</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="11" t="str">
@@ -2102,7 +2103,7 @@
         <v>case "fsck" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18.75" hidden="1">
+    <row r="10" spans="1:11" ht="18.75">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -2118,10 +2119,10 @@
         <v>9</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="11" t="str">
@@ -2133,7 +2134,7 @@
         <v>case "help" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="18.75" hidden="1">
+    <row r="11" spans="1:11" ht="18.75">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -2149,10 +2150,10 @@
         <v>9</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="11" t="str">
@@ -2180,7 +2181,7 @@
         <v>9</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>9</v>
@@ -2199,7 +2200,7 @@
         <v>"merge-tree",</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="18.75" hidden="1">
+    <row r="13" spans="1:11" ht="18.75">
       <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
@@ -2215,10 +2216,10 @@
         <v>9</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="11" t="str">
@@ -2230,7 +2231,7 @@
         <v>case "show-branch" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18.75" hidden="1">
+    <row r="14" spans="1:11" ht="18.75">
       <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
@@ -2246,10 +2247,10 @@
         <v>9</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="11" t="str">
@@ -2261,7 +2262,7 @@
         <v>case "verify-commit" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="18.75" hidden="1">
+    <row r="15" spans="1:11" ht="18.75">
       <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
@@ -2277,10 +2278,10 @@
         <v>9</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="11" t="str">
@@ -2304,11 +2305,13 @@
         <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-whatchanged</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I16" s="11" t="str">
         <f t="shared" si="1"/>
@@ -2323,7 +2326,7 @@
         <v>"whatchanged",</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="18.75" hidden="1">
+    <row r="17" spans="1:10" ht="18.75">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -2341,10 +2344,10 @@
         <v>9</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="11" t="str">
@@ -2356,7 +2359,7 @@
         <v>case "reflog" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="18.75" hidden="1">
+    <row r="18" spans="1:10" ht="18.75">
       <c r="A18" s="5" t="s">
         <v>28</v>
       </c>
@@ -2374,10 +2377,10 @@
         <v>9</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="11" t="str">
@@ -2389,7 +2392,7 @@
         <v>case "remote" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="18.75" hidden="1">
+    <row r="19" spans="1:10" ht="18.75">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -2407,10 +2410,10 @@
         <v>9</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="11" t="str">
@@ -2422,7 +2425,7 @@
         <v>case "repack" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="18.75" hidden="1">
+    <row r="20" spans="1:10" ht="18.75">
       <c r="A20" s="5" t="s">
         <v>30</v>
       </c>
@@ -2440,10 +2443,10 @@
         <v>9</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="11" t="str">
@@ -2469,8 +2472,8 @@
         <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-fast-import</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>32</v>
+      <c r="E21" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
@@ -2484,7 +2487,7 @@
         <v>case "fast-import" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="18.75" hidden="1">
+    <row r="22" spans="1:10" ht="18.75">
       <c r="A22" s="5" t="s">
         <v>33</v>
       </c>
@@ -2500,10 +2503,10 @@
         <v>9</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="11" t="str">
@@ -2527,8 +2530,8 @@
         <f t="shared" si="0"/>
         <v>chrome https://git-scm.com/docs/git-fast-export</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>32</v>
+      <c r="E23" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
@@ -2542,7 +2545,7 @@
         <v>case "fast-export" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="18.75" hidden="1">
+    <row r="24" spans="1:10" ht="18.75">
       <c r="A24" s="5" t="s">
         <v>35</v>
       </c>
@@ -2558,10 +2561,10 @@
         <v>9</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="11" t="str">
@@ -2573,7 +2576,7 @@
         <v>case "filter-branch" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="18.75" hidden="1">
+    <row r="25" spans="1:10" ht="18.75">
       <c r="A25" s="5" t="s">
         <v>36</v>
       </c>
@@ -2589,10 +2592,10 @@
         <v>9</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="11" t="str">
@@ -2604,7 +2607,7 @@
         <v>case "mergetool" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="18.75" hidden="1">
+    <row r="26" spans="1:10" ht="18.75">
       <c r="A26" s="5" t="s">
         <v>37</v>
       </c>
@@ -2620,10 +2623,10 @@
         <v>9</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="11" t="str">
@@ -2635,7 +2638,7 @@
         <v>case "pack-refs" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="18.75" hidden="1">
+    <row r="27" spans="1:10" ht="18.75">
       <c r="A27" s="5" t="s">
         <v>38</v>
       </c>
@@ -2651,10 +2654,10 @@
         <v>9</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="11" t="str">
@@ -2666,7 +2669,7 @@
         <v>case "prune" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="18.75" hidden="1">
+    <row r="28" spans="1:10" ht="18.75">
       <c r="A28" s="5" t="s">
         <v>39</v>
       </c>
@@ -2684,10 +2687,10 @@
         <v>9</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="11" t="str">
@@ -2699,7 +2702,7 @@
         <v>case "svn" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="18.75" hidden="1">
+    <row r="29" spans="1:10" ht="18.75">
       <c r="A29" s="5" t="s">
         <v>41</v>
       </c>
@@ -2715,10 +2718,10 @@
         <v>9</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="11" t="str">
@@ -2730,7 +2733,7 @@
         <v>case "archimport" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="18.75" hidden="1">
+    <row r="30" spans="1:10" ht="18.75">
       <c r="A30" s="5" t="s">
         <v>42</v>
       </c>
@@ -2746,10 +2749,10 @@
         <v>9</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="11" t="str">
@@ -2761,7 +2764,7 @@
         <v>case "cvsexportcommit" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="18.75" hidden="1">
+    <row r="31" spans="1:10" ht="18.75">
       <c r="A31" s="5" t="s">
         <v>43</v>
       </c>
@@ -2777,10 +2780,10 @@
         <v>9</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="11" t="str">
@@ -2819,7 +2822,7 @@
         <v>case "cvsserver" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="18.75" hidden="1">
+    <row r="33" spans="1:10" ht="18.75">
       <c r="A33" s="5" t="s">
         <v>45</v>
       </c>
@@ -2835,10 +2838,10 @@
         <v>9</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="11" t="str">
@@ -2850,7 +2853,7 @@
         <v>case "imap-send" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="18.75" hidden="1">
+    <row r="34" spans="1:10" ht="18.75">
       <c r="A34" s="5" t="s">
         <v>46</v>
       </c>
@@ -2866,10 +2869,10 @@
         <v>9</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="11" t="str">
@@ -2881,7 +2884,7 @@
         <v>case "p4" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="18.75" hidden="1">
+    <row r="35" spans="1:10" ht="18.75">
       <c r="A35" s="5" t="s">
         <v>47</v>
       </c>
@@ -2897,10 +2900,10 @@
         <v>9</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="11" t="str">
@@ -2912,7 +2915,7 @@
         <v>case "quiltimport" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="18.75" hidden="1">
+    <row r="36" spans="1:10" ht="18.75">
       <c r="A36" s="5" t="s">
         <v>48</v>
       </c>
@@ -2928,10 +2931,10 @@
         <v>9</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="11" t="str">
@@ -2943,7 +2946,7 @@
         <v>case "request-pull" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="18.75" hidden="1">
+    <row r="37" spans="1:10" ht="18.75">
       <c r="A37" s="5" t="s">
         <v>49</v>
       </c>
@@ -2959,10 +2962,10 @@
         <v>9</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="11" t="str">
@@ -3354,7 +3357,7 @@
     </row>
     <row r="52" spans="1:10" ht="18.75" hidden="1">
       <c r="A52" s="5" t="s">
-        <v>65</v>
+        <v>273</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>51</v>
@@ -3381,7 +3384,7 @@
     </row>
     <row r="53" spans="1:10" ht="18.75" hidden="1">
       <c r="A53" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>51</v>
@@ -3408,7 +3411,7 @@
     </row>
     <row r="54" spans="1:10" ht="18.75" hidden="1">
       <c r="A54" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>51</v>
@@ -3435,7 +3438,7 @@
     </row>
     <row r="55" spans="1:10" ht="18.75" hidden="1">
       <c r="A55" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>51</v>
@@ -3460,12 +3463,12 @@
         <v>case "gitworkflows" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="18.75" hidden="1">
+    <row r="56" spans="1:10" ht="18.75">
       <c r="A56" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>8</v>
@@ -3478,10 +3481,10 @@
         <v>9</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="11" t="str">
@@ -3493,12 +3496,12 @@
         <v>case "bisect" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="18.75" hidden="1">
+    <row r="57" spans="1:10" ht="18.75">
       <c r="A57" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>8</v>
@@ -3511,10 +3514,10 @@
         <v>9</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="11" t="str">
@@ -3526,12 +3529,12 @@
         <v>case "format-patch" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="18.75" hidden="1">
+    <row r="58" spans="1:10" ht="18.75">
       <c r="A58" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>8</v>
@@ -3544,10 +3547,10 @@
         <v>9</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H58" s="13"/>
       <c r="I58" s="11" t="str">
@@ -3559,12 +3562,12 @@
         <v>case "init" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="18.75" hidden="1">
+    <row r="59" spans="1:10" ht="18.75">
       <c r="A59" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>8</v>
@@ -3577,10 +3580,10 @@
         <v>9</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H59" s="13"/>
       <c r="I59" s="11" t="str">
@@ -3592,12 +3595,12 @@
         <v>case "rm" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="18.75" hidden="1">
+    <row r="60" spans="1:10" ht="18.75">
       <c r="A60" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>8</v>
@@ -3610,10 +3613,10 @@
         <v>9</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H60" s="13"/>
       <c r="I60" s="11" t="str">
@@ -3625,12 +3628,12 @@
         <v>case "show" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="18.75" hidden="1">
+    <row r="61" spans="1:10" ht="18.75">
       <c r="A61" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>8</v>
@@ -3643,10 +3646,10 @@
         <v>9</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H61" s="13"/>
       <c r="I61" s="11" t="str">
@@ -3658,15 +3661,15 @@
         <v>case "stash" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="18.75" hidden="1">
+    <row r="62" spans="1:10" ht="18.75">
       <c r="A62" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="D62" s="6" t="str">
         <f t="shared" si="3"/>
@@ -3676,10 +3679,10 @@
         <v>9</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H62" s="13"/>
       <c r="I62" s="11" t="str">
@@ -3691,15 +3694,15 @@
         <v>case "archive" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="18.75" hidden="1">
+    <row r="63" spans="1:10" ht="18.75">
       <c r="A63" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D63" s="6" t="str">
         <f t="shared" si="3"/>
@@ -3709,10 +3712,10 @@
         <v>9</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H63" s="13"/>
       <c r="I63" s="11" t="str">
@@ -3726,13 +3729,13 @@
     </row>
     <row r="64" spans="1:10" ht="18.75" hidden="1">
       <c r="A64" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D64" s="6" t="str">
         <f t="shared" si="3"/>
@@ -3753,15 +3756,15 @@
         <v>case "gitk" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="18.75" hidden="1">
+    <row r="65" spans="1:11" ht="18.75">
       <c r="A65" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D65" s="6" t="str">
         <f t="shared" si="3"/>
@@ -3771,10 +3774,10 @@
         <v>9</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H65" s="13"/>
       <c r="I65" s="11" t="str">
@@ -3786,15 +3789,15 @@
         <v>case "shortlog" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="18.75" hidden="1">
+    <row r="66" spans="1:11" ht="18.75">
       <c r="A66" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D66" s="6" t="str">
         <f t="shared" ref="D66:D97" si="4">"chrome https://git-scm.com/docs/git-"&amp;A66</f>
@@ -3804,10 +3807,10 @@
         <v>9</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="11" t="str">
@@ -3819,12 +3822,12 @@
         <v>case "clean" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="18.75" hidden="1">
+    <row r="67" spans="1:11" ht="18.75">
       <c r="A67" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>28</v>
@@ -3837,10 +3840,10 @@
         <v>9</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H67" s="13"/>
       <c r="I67" s="11" t="str">
@@ -3852,12 +3855,12 @@
         <v>case "pull" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="18.75" hidden="1">
+    <row r="68" spans="1:11" ht="18.75">
       <c r="A68" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>2</v>
@@ -3870,10 +3873,10 @@
         <v>9</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H68" s="13"/>
       <c r="I68" s="11" t="str">
@@ -3885,12 +3888,12 @@
         <v>case "reset" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="18.75" hidden="1">
+    <row r="69" spans="1:11" ht="18.75">
       <c r="A69" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="6" t="str">
@@ -3901,10 +3904,10 @@
         <v>9</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H69" s="13"/>
       <c r="I69" s="11" t="str">
@@ -3916,12 +3919,12 @@
         <v>case "add" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="18.75" hidden="1">
+    <row r="70" spans="1:11" ht="18.75">
       <c r="A70" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="6" t="str">
@@ -3932,10 +3935,10 @@
         <v>9</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H70" s="13"/>
       <c r="I70" s="11" t="str">
@@ -3947,12 +3950,12 @@
         <v>case "am" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="18.75" hidden="1">
+    <row r="71" spans="1:11" ht="18.75">
       <c r="A71" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="6" t="str">
@@ -3963,10 +3966,10 @@
         <v>9</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H71" s="13"/>
       <c r="I71" s="11" t="str">
@@ -3978,12 +3981,12 @@
         <v>case "branch" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="18.75" hidden="1">
+    <row r="72" spans="1:11" ht="18.75">
       <c r="A72" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="6" t="str">
@@ -3994,10 +3997,10 @@
         <v>9</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H72" s="13"/>
       <c r="I72" s="11" t="str">
@@ -4009,12 +4012,12 @@
         <v>case "bundle" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="18.75" hidden="1">
+    <row r="73" spans="1:11" ht="18.75">
       <c r="A73" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="6" t="str">
@@ -4025,10 +4028,10 @@
         <v>9</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H73" s="13"/>
       <c r="I73" s="11" t="str">
@@ -4040,12 +4043,12 @@
         <v>case "checkout" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="18.75" hidden="1">
+    <row r="74" spans="1:11" ht="18.75">
       <c r="A74" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="6" t="str">
@@ -4056,10 +4059,10 @@
         <v>9</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H74" s="13"/>
       <c r="I74" s="11" t="str">
@@ -4073,10 +4076,10 @@
     </row>
     <row r="75" spans="1:11" ht="18.75">
       <c r="A75" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="6" t="str">
@@ -4087,10 +4090,10 @@
         <v>9</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H75" s="13"/>
       <c r="I75" s="11" t="str">
@@ -4106,12 +4109,12 @@
         <v>"citool",</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="18.75" hidden="1">
+    <row r="76" spans="1:11" ht="18.75">
       <c r="A76" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="6" t="str">
@@ -4122,10 +4125,10 @@
         <v>9</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H76" s="13"/>
       <c r="I76" s="11" t="str">
@@ -4137,12 +4140,12 @@
         <v>case "clone" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="18.75" hidden="1">
+    <row r="77" spans="1:11" ht="18.75">
       <c r="A77" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="6" t="str">
@@ -4153,10 +4156,10 @@
         <v>9</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H77" s="13"/>
       <c r="I77" s="11" t="str">
@@ -4168,12 +4171,12 @@
         <v>case "commit" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="18.75" hidden="1">
+    <row r="78" spans="1:11" ht="18.75">
       <c r="A78" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="6" t="str">
@@ -4184,10 +4187,10 @@
         <v>9</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H78" s="13"/>
       <c r="I78" s="11" t="str">
@@ -4199,12 +4202,12 @@
         <v>case "diff" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="18.75" hidden="1">
+    <row r="79" spans="1:11" ht="18.75">
       <c r="A79" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="6" t="str">
@@ -4215,10 +4218,10 @@
         <v>9</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H79" s="13"/>
       <c r="I79" s="11" t="str">
@@ -4230,12 +4233,12 @@
         <v>case "fetch" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="18.75" hidden="1">
+    <row r="80" spans="1:11" ht="18.75">
       <c r="A80" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="6" t="str">
@@ -4246,10 +4249,10 @@
         <v>9</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H80" s="13"/>
       <c r="I80" s="11" t="str">
@@ -4261,12 +4264,12 @@
         <v>case "gc" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="18.75" hidden="1">
+    <row r="81" spans="1:11" ht="18.75">
       <c r="A81" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="6" t="str">
@@ -4277,10 +4280,10 @@
         <v>9</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H81" s="13"/>
       <c r="I81" s="11" t="str">
@@ -4294,10 +4297,10 @@
     </row>
     <row r="82" spans="1:11" ht="18.75">
       <c r="A82" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="6" t="str">
@@ -4308,7 +4311,7 @@
         <v>9</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G82" s="13" t="s">
         <v>9</v>
@@ -4327,12 +4330,12 @@
         <v>"gui",</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="18.75" hidden="1">
+    <row r="83" spans="1:11" ht="18.75">
       <c r="A83" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="6" t="str">
@@ -4343,10 +4346,10 @@
         <v>9</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H83" s="13"/>
       <c r="I83" s="11" t="str">
@@ -4358,12 +4361,12 @@
         <v>case "log" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="18.75" hidden="1">
+    <row r="84" spans="1:11" ht="18.75">
       <c r="A84" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="6" t="str">
@@ -4374,10 +4377,10 @@
         <v>9</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H84" s="13"/>
       <c r="I84" s="11" t="str">
@@ -4389,12 +4392,12 @@
         <v>case "merge" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="18.75" hidden="1">
+    <row r="85" spans="1:11" ht="18.75">
       <c r="A85" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="6" t="str">
@@ -4405,10 +4408,10 @@
         <v>9</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H85" s="13"/>
       <c r="I85" s="11" t="str">
@@ -4420,12 +4423,12 @@
         <v>case "mv" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="18.75" hidden="1">
+    <row r="86" spans="1:11" ht="18.75">
       <c r="A86" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="6" t="str">
@@ -4436,10 +4439,10 @@
         <v>9</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H86" s="13"/>
       <c r="I86" s="11" t="str">
@@ -4451,12 +4454,12 @@
         <v>case "notes" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="18.75" hidden="1">
+    <row r="87" spans="1:11" ht="18.75">
       <c r="A87" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="6" t="str">
@@ -4467,10 +4470,10 @@
         <v>9</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H87" s="13"/>
       <c r="I87" s="11" t="str">
@@ -4482,12 +4485,12 @@
         <v>case "push" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="18.75" hidden="1">
+    <row r="88" spans="1:11" ht="18.75">
       <c r="A88" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="6" t="str">
@@ -4498,10 +4501,10 @@
         <v>9</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H88" s="13"/>
       <c r="I88" s="11" t="str">
@@ -4513,12 +4516,12 @@
         <v>case "range-diff" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="18.75" hidden="1">
+    <row r="89" spans="1:11" ht="18.75">
       <c r="A89" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="6" t="str">
@@ -4529,10 +4532,10 @@
         <v>9</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H89" s="13"/>
       <c r="I89" s="11" t="str">
@@ -4544,12 +4547,12 @@
         <v>case "rebase" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="18.75" hidden="1">
+    <row r="90" spans="1:11" ht="18.75">
       <c r="A90" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="6" t="str">
@@ -4560,10 +4563,10 @@
         <v>9</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H90" s="13"/>
       <c r="I90" s="11" t="str">
@@ -4575,12 +4578,12 @@
         <v>case "restore" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="18.75" hidden="1">
+    <row r="91" spans="1:11" ht="18.75">
       <c r="A91" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="6" t="str">
@@ -4591,10 +4594,10 @@
         <v>9</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H91" s="13"/>
       <c r="I91" s="11" t="str">
@@ -4608,10 +4611,10 @@
     </row>
     <row r="92" spans="1:11" ht="18.75">
       <c r="A92" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="6" t="str">
@@ -4622,10 +4625,10 @@
         <v>9</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H92" s="13"/>
       <c r="I92" s="11" t="str">
@@ -4641,12 +4644,12 @@
         <v>"sparse-checkout",</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="18.75" hidden="1">
+    <row r="93" spans="1:11" ht="18.75">
       <c r="A93" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="6" t="str">
@@ -4657,10 +4660,10 @@
         <v>9</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H93" s="13"/>
       <c r="I93" s="11" t="str">
@@ -4672,12 +4675,12 @@
         <v>case "status" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="18.75" hidden="1">
+    <row r="94" spans="1:11" ht="18.75">
       <c r="A94" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="6" t="str">
@@ -4688,10 +4691,10 @@
         <v>9</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H94" s="13"/>
       <c r="I94" s="11" t="str">
@@ -4703,12 +4706,12 @@
         <v>case "submodule" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="18.75" hidden="1">
+    <row r="95" spans="1:11" ht="18.75">
       <c r="A95" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="6" t="str">
@@ -4719,10 +4722,10 @@
         <v>9</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H95" s="13"/>
       <c r="I95" s="11" t="str">
@@ -4734,12 +4737,12 @@
         <v>case "switch" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="18.75" hidden="1">
+    <row r="96" spans="1:11" ht="18.75">
       <c r="A96" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="6" t="str">
@@ -4750,10 +4753,10 @@
         <v>9</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H96" s="13"/>
       <c r="I96" s="11" t="str">
@@ -4765,12 +4768,12 @@
         <v>case "tag" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="18.75" hidden="1">
+    <row r="97" spans="1:11" ht="18.75">
       <c r="A97" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="6" t="str">
@@ -4781,10 +4784,10 @@
         <v>9</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H97" s="13"/>
       <c r="I97" s="11" t="str">
@@ -4796,12 +4799,12 @@
         <v>case "worktree" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="18.75" hidden="1">
+    <row r="98" spans="1:11" ht="18.75">
       <c r="A98" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>8</v>
@@ -4814,10 +4817,10 @@
         <v>9</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H98" s="13"/>
       <c r="I98" s="11" t="str">
@@ -4831,13 +4834,13 @@
     </row>
     <row r="99" spans="1:11" ht="18.75">
       <c r="A99" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D99" s="6" t="str">
         <f t="shared" si="7"/>
@@ -4847,10 +4850,10 @@
         <v>9</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H99" s="13"/>
       <c r="I99" s="11" t="str">
@@ -4866,12 +4869,12 @@
         <v>"get-tar-commit-id",</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="18.75" hidden="1">
+    <row r="100" spans="1:11" ht="18.75">
       <c r="A100" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>2</v>
@@ -4884,10 +4887,10 @@
         <v>9</v>
       </c>
       <c r="F100" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H100" s="13"/>
       <c r="I100" s="11" t="str">
@@ -4899,12 +4902,12 @@
         <v>case "rev-parse" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="18.75" hidden="1">
+    <row r="101" spans="1:11" ht="18.75">
       <c r="A101" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="6" t="str">
@@ -4915,10 +4918,10 @@
         <v>9</v>
       </c>
       <c r="F101" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H101" s="13"/>
       <c r="I101" s="11" t="str">
@@ -4930,12 +4933,12 @@
         <v>case "cat-file" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="18.75" hidden="1">
+    <row r="102" spans="1:11" ht="18.75">
       <c r="A102" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="6" t="str">
@@ -4946,10 +4949,10 @@
         <v>9</v>
       </c>
       <c r="F102" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H102" s="13"/>
       <c r="I102" s="11" t="str">
@@ -4961,12 +4964,12 @@
         <v>case "cherry" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="18.75" hidden="1">
+    <row r="103" spans="1:11" ht="18.75">
       <c r="A103" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="6" t="str">
@@ -4977,10 +4980,10 @@
         <v>9</v>
       </c>
       <c r="F103" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H103" s="13"/>
       <c r="I103" s="11" t="str">
@@ -4992,12 +4995,12 @@
         <v>case "diff-files" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="18.75" hidden="1">
+    <row r="104" spans="1:11" ht="18.75">
       <c r="A104" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="6" t="str">
@@ -5008,10 +5011,10 @@
         <v>9</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H104" s="13"/>
       <c r="I104" s="11" t="str">
@@ -5023,12 +5026,12 @@
         <v>case "diff-index" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="18.75" hidden="1">
+    <row r="105" spans="1:11" ht="18.75">
       <c r="A105" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="6" t="str">
@@ -5039,10 +5042,10 @@
         <v>9</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H105" s="13"/>
       <c r="I105" s="11" t="str">
@@ -5054,12 +5057,12 @@
         <v>case "for-each-ref" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="18.75" hidden="1">
+    <row r="106" spans="1:11" ht="18.75">
       <c r="A106" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="6" t="str">
@@ -5070,10 +5073,10 @@
         <v>9</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H106" s="13"/>
       <c r="I106" s="11" t="str">
@@ -5085,12 +5088,12 @@
         <v>case "ls-files" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="18.75" hidden="1">
+    <row r="107" spans="1:11" ht="18.75">
       <c r="A107" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="6" t="str">
@@ -5101,10 +5104,10 @@
         <v>9</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H107" s="13"/>
       <c r="I107" s="11" t="str">
@@ -5116,12 +5119,12 @@
         <v>case "ls-remote" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="18.75" hidden="1">
+    <row r="108" spans="1:11" ht="18.75">
       <c r="A108" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="6" t="str">
@@ -5132,10 +5135,10 @@
         <v>9</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H108" s="13"/>
       <c r="I108" s="11" t="str">
@@ -5147,12 +5150,12 @@
         <v>case "ls-tree" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="18.75" hidden="1">
+    <row r="109" spans="1:11" ht="18.75">
       <c r="A109" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="6" t="str">
@@ -5163,10 +5166,10 @@
         <v>9</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H109" s="13"/>
       <c r="I109" s="11" t="str">
@@ -5178,12 +5181,12 @@
         <v>case "merge-base" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="18.75" hidden="1">
+    <row r="110" spans="1:11" ht="18.75">
       <c r="A110" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="6" t="str">
@@ -5194,10 +5197,10 @@
         <v>9</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H110" s="13"/>
       <c r="I110" s="11" t="str">
@@ -5209,12 +5212,12 @@
         <v>case "name-rev" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="18.75" hidden="1">
+    <row r="111" spans="1:11" ht="18.75">
       <c r="A111" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="6" t="str">
@@ -5225,10 +5228,10 @@
         <v>9</v>
       </c>
       <c r="F111" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H111" s="13"/>
       <c r="I111" s="11" t="str">
@@ -5240,12 +5243,12 @@
         <v>case "pack-redundant" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="18.75" hidden="1">
+    <row r="112" spans="1:11" ht="18.75">
       <c r="A112" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="6" t="str">
@@ -5256,10 +5259,10 @@
         <v>9</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H112" s="13"/>
       <c r="I112" s="11" t="str">
@@ -5273,10 +5276,10 @@
     </row>
     <row r="113" spans="1:11" ht="18.75">
       <c r="A113" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="6" t="str">
@@ -5287,10 +5290,10 @@
         <v>9</v>
       </c>
       <c r="F113" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H113" s="13"/>
       <c r="I113" s="11" t="str">
@@ -5306,12 +5309,12 @@
         <v>"show-index",</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="18.75" hidden="1">
+    <row r="114" spans="1:11" ht="18.75">
       <c r="A114" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="6" t="str">
@@ -5322,10 +5325,10 @@
         <v>9</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H114" s="13"/>
       <c r="I114" s="11" t="str">
@@ -5337,12 +5340,12 @@
         <v>case "show-ref" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="18.75" hidden="1">
+    <row r="115" spans="1:11" ht="18.75">
       <c r="A115" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="6" t="str">
@@ -5353,10 +5356,10 @@
         <v>9</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H115" s="13"/>
       <c r="I115" s="11" t="str">
@@ -5368,12 +5371,12 @@
         <v>case "unpack-file" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="18.75" hidden="1">
+    <row r="116" spans="1:11" ht="18.75">
       <c r="A116" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="6" t="str">
@@ -5384,10 +5387,10 @@
         <v>9</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H116" s="13"/>
       <c r="I116" s="11" t="str">
@@ -5399,12 +5402,12 @@
         <v>case "var" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="18.75" hidden="1">
+    <row r="117" spans="1:11" ht="18.75">
       <c r="A117" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="6" t="str">
@@ -5415,10 +5418,10 @@
         <v>9</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H117" s="13"/>
       <c r="I117" s="11" t="str">
@@ -5430,12 +5433,12 @@
         <v>case "verify-pack" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="18.75" hidden="1">
+    <row r="118" spans="1:11" ht="18.75">
       <c r="A118" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B118" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>8</v>
@@ -5448,10 +5451,10 @@
         <v>9</v>
       </c>
       <c r="F118" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H118" s="13"/>
       <c r="I118" s="11" t="str">
@@ -5463,12 +5466,12 @@
         <v>case "commit-tree" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="18.75" hidden="1">
+    <row r="119" spans="1:11" ht="18.75">
       <c r="A119" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>8</v>
@@ -5481,10 +5484,10 @@
         <v>9</v>
       </c>
       <c r="F119" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H119" s="13"/>
       <c r="I119" s="11" t="str">
@@ -5496,12 +5499,12 @@
         <v>case "hash-object" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="18.75" hidden="1">
+    <row r="120" spans="1:11" ht="18.75">
       <c r="A120" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>13</v>
@@ -5514,10 +5517,10 @@
         <v>9</v>
       </c>
       <c r="F120" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H120" s="13"/>
       <c r="I120" s="11" t="str">
@@ -5529,12 +5532,12 @@
         <v>case "read-tree" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="18.75" hidden="1">
+    <row r="121" spans="1:11" ht="18.75">
       <c r="A121" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>13</v>
@@ -5547,10 +5550,10 @@
         <v>9</v>
       </c>
       <c r="F121" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G121" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H121" s="13"/>
       <c r="I121" s="11" t="str">
@@ -5562,15 +5565,15 @@
         <v>case "symbolic-ref" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="18.75" hidden="1">
+    <row r="122" spans="1:11" ht="18.75">
       <c r="A122" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D122" s="6" t="str">
         <f t="shared" si="7"/>
@@ -5580,10 +5583,10 @@
         <v>9</v>
       </c>
       <c r="F122" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H122" s="13"/>
       <c r="I122" s="11" t="str">
@@ -5595,12 +5598,12 @@
         <v>case "index-pack" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="18.75" hidden="1">
+    <row r="123" spans="1:11" ht="18.75">
       <c r="A123" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>28</v>
@@ -5613,10 +5616,10 @@
         <v>9</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G123" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H123" s="13"/>
       <c r="I123" s="11" t="str">
@@ -5628,12 +5631,12 @@
         <v>case "prune-packed" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="18.75" hidden="1">
+    <row r="124" spans="1:11" ht="18.75">
       <c r="A124" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>2</v>
@@ -5646,10 +5649,10 @@
         <v>9</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G124" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H124" s="13"/>
       <c r="I124" s="11" t="str">
@@ -5661,12 +5664,12 @@
         <v>case "mktree" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="18.75" hidden="1">
+    <row r="125" spans="1:11" ht="18.75">
       <c r="A125" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="6" t="str">
@@ -5677,10 +5680,10 @@
         <v>9</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G125" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H125" s="13"/>
       <c r="I125" s="11" t="str">
@@ -5692,12 +5695,12 @@
         <v>case "apply" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="18.75" hidden="1">
+    <row r="126" spans="1:11" ht="18.75">
       <c r="A126" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="6" t="str">
@@ -5708,10 +5711,10 @@
         <v>9</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H126" s="13"/>
       <c r="I126" s="11" t="str">
@@ -5723,12 +5726,12 @@
         <v>case "checkout-index" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="18.75" hidden="1">
+    <row r="127" spans="1:11" ht="18.75">
       <c r="A127" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="6" t="str">
@@ -5739,10 +5742,10 @@
         <v>9</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G127" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H127" s="13"/>
       <c r="I127" s="11" t="str">
@@ -5754,12 +5757,12 @@
         <v>case "commit-graph" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="18.75" hidden="1">
+    <row r="128" spans="1:11" ht="18.75">
       <c r="A128" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="6" t="str">
@@ -5770,10 +5773,10 @@
         <v>9</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H128" s="13"/>
       <c r="I128" s="11" t="str">
@@ -5785,12 +5788,12 @@
         <v>case "merge-file" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="18.75" hidden="1">
+    <row r="129" spans="1:11" ht="18.75">
       <c r="A129" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="6" t="str">
@@ -5801,10 +5804,10 @@
         <v>9</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G129" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H129" s="13"/>
       <c r="I129" s="11" t="str">
@@ -5818,10 +5821,10 @@
     </row>
     <row r="130" spans="1:11" ht="18.75">
       <c r="A130" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="6" t="str">
@@ -5832,10 +5835,10 @@
         <v>9</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H130" s="13"/>
       <c r="I130" s="11" t="str">
@@ -5851,12 +5854,12 @@
         <v>"mktag",</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="18.75" hidden="1">
+    <row r="131" spans="1:11" ht="18.75">
       <c r="A131" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="6" t="str">
@@ -5867,10 +5870,10 @@
         <v>9</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G131" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H131" s="13"/>
       <c r="I131" s="11" t="str">
@@ -5882,12 +5885,12 @@
         <v>case "multi-pack-index" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="18.75" hidden="1">
+    <row r="132" spans="1:11" ht="18.75">
       <c r="A132" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="6" t="str">
@@ -5898,10 +5901,10 @@
         <v>9</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H132" s="13"/>
       <c r="I132" s="11" t="str">
@@ -5913,12 +5916,12 @@
         <v>case "pack-objects" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="18.75" hidden="1">
+    <row r="133" spans="1:11" ht="18.75">
       <c r="A133" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="6" t="str">
@@ -5929,10 +5932,10 @@
         <v>9</v>
       </c>
       <c r="F133" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G133" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H133" s="13"/>
       <c r="I133" s="11" t="str">
@@ -5944,12 +5947,12 @@
         <v>case "unpack-objects" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="18.75" hidden="1">
+    <row r="134" spans="1:11" ht="18.75">
       <c r="A134" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="6" t="str">
@@ -5960,10 +5963,10 @@
         <v>9</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H134" s="13"/>
       <c r="I134" s="11" t="str">
@@ -5977,10 +5980,10 @@
     </row>
     <row r="135" spans="1:11" ht="18.75">
       <c r="A135" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="6" t="str">
@@ -5991,10 +5994,10 @@
         <v>9</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G135" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H135" s="13"/>
       <c r="I135" s="11" t="str">
@@ -6010,12 +6013,12 @@
         <v>"update-ref",</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="18.75" hidden="1">
+    <row r="136" spans="1:11" ht="18.75">
       <c r="A136" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="6" t="str">
@@ -6026,10 +6029,10 @@
         <v>9</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H136" s="13"/>
       <c r="I136" s="11" t="str">
@@ -6041,12 +6044,12 @@
         <v>case "write-tree" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="18.75" hidden="1">
+    <row r="137" spans="1:11" ht="18.75">
       <c r="A137" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B137" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>8</v>
@@ -6059,10 +6062,10 @@
         <v>9</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G137" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H137" s="13"/>
       <c r="I137" s="11" t="str">
@@ -6076,10 +6079,10 @@
     </row>
     <row r="138" spans="1:11" ht="18.75">
       <c r="A138" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>8</v>
@@ -6092,10 +6095,10 @@
         <v>9</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H138" s="13"/>
       <c r="I138" s="11" t="str">
@@ -6111,12 +6114,12 @@
         <v>"merge-one-file",</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="18.75" hidden="1">
+    <row r="139" spans="1:11" ht="18.75">
       <c r="A139" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>8</v>
@@ -6129,10 +6132,10 @@
         <v>9</v>
       </c>
       <c r="F139" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G139" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H139" s="13"/>
       <c r="I139" s="11" t="str">
@@ -6144,12 +6147,12 @@
         <v>case "patch-id" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="18.75" hidden="1">
+    <row r="140" spans="1:11" ht="18.75">
       <c r="A140" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>13</v>
@@ -6162,10 +6165,10 @@
         <v>9</v>
       </c>
       <c r="F140" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H140" s="13"/>
       <c r="I140" s="11" t="str">
@@ -6177,12 +6180,12 @@
         <v>case "column" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="18.75" hidden="1">
+    <row r="141" spans="1:11" ht="18.75">
       <c r="A141" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>13</v>
@@ -6195,10 +6198,10 @@
         <v>9</v>
       </c>
       <c r="F141" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H141" s="13"/>
       <c r="I141" s="11" t="str">
@@ -6212,10 +6215,10 @@
     </row>
     <row r="142" spans="1:11" ht="18.75" hidden="1">
       <c r="A142" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>2</v>
@@ -6239,12 +6242,12 @@
         <v>case "sh-setup" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="18.75" hidden="1">
+    <row r="143" spans="1:11" ht="18.75">
       <c r="A143" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="6" t="str">
@@ -6255,10 +6258,10 @@
         <v>9</v>
       </c>
       <c r="F143" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H143" s="13"/>
       <c r="I143" s="11" t="str">
@@ -6270,12 +6273,12 @@
         <v>case "check-attr" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="18.75" hidden="1">
+    <row r="144" spans="1:11" ht="18.75">
       <c r="A144" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="6" t="str">
@@ -6286,10 +6289,10 @@
         <v>9</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H144" s="13"/>
       <c r="I144" s="11" t="str">
@@ -6301,12 +6304,12 @@
         <v>case "check-ignore" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="18.75" hidden="1">
+    <row r="145" spans="1:11" ht="18.75">
       <c r="A145" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="6" t="str">
@@ -6317,10 +6320,10 @@
         <v>9</v>
       </c>
       <c r="F145" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G145" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H145" s="13"/>
       <c r="I145" s="11" t="str">
@@ -6334,10 +6337,10 @@
     </row>
     <row r="146" spans="1:11" ht="18.75">
       <c r="A146" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="6" t="str">
@@ -6348,10 +6351,10 @@
         <v>9</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H146" s="13"/>
       <c r="I146" s="11" t="str">
@@ -6369,10 +6372,10 @@
     </row>
     <row r="147" spans="1:11" ht="18.75" hidden="1">
       <c r="A147" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="6" t="str">
@@ -6396,10 +6399,10 @@
     </row>
     <row r="148" spans="1:11" ht="18.75" hidden="1">
       <c r="A148" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="6" t="str">
@@ -6421,12 +6424,12 @@
         <v>case "credential-store" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="18.75" hidden="1">
+    <row r="149" spans="1:11" ht="18.75">
       <c r="A149" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="6" t="str">
@@ -6437,10 +6440,10 @@
         <v>9</v>
       </c>
       <c r="F149" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G149" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H149" s="13"/>
       <c r="I149" s="11" t="str">
@@ -6452,12 +6455,12 @@
         <v>case "fmt-merge-msg" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="18.75" hidden="1">
+    <row r="150" spans="1:11" ht="18.75">
       <c r="A150" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="6" t="str">
@@ -6468,10 +6471,10 @@
         <v>9</v>
       </c>
       <c r="F150" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G150" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H150" s="13"/>
       <c r="I150" s="11" t="str">
@@ -6483,12 +6486,12 @@
         <v>case "interpret-trailers" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="18.75" hidden="1">
+    <row r="151" spans="1:11" ht="18.75">
       <c r="A151" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="6" t="str">
@@ -6499,10 +6502,10 @@
         <v>9</v>
       </c>
       <c r="F151" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G151" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H151" s="13"/>
       <c r="I151" s="11" t="str">
@@ -6516,10 +6519,10 @@
     </row>
     <row r="152" spans="1:11" ht="18.75" hidden="1">
       <c r="A152" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="6" t="str">
@@ -6541,12 +6544,12 @@
         <v>case "sh-i18n" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="18.75" hidden="1">
+    <row r="153" spans="1:11" ht="18.75">
       <c r="A153" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="6" t="str">
@@ -6557,10 +6560,10 @@
         <v>9</v>
       </c>
       <c r="F153" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G153" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H153" s="13"/>
       <c r="I153" s="11" t="str">
@@ -6572,12 +6575,12 @@
         <v>case "stripspace" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="18.75" hidden="1">
+    <row r="154" spans="1:11" ht="18.75">
       <c r="A154" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B154" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>8</v>
@@ -6590,10 +6593,10 @@
         <v>9</v>
       </c>
       <c r="F154" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G154" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H154" s="13"/>
       <c r="I154" s="11" t="str">
@@ -6605,12 +6608,12 @@
         <v>case "receive-pack" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="18.75" hidden="1">
+    <row r="155" spans="1:11" ht="18.75">
       <c r="A155" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="6" t="str">
@@ -6621,10 +6624,10 @@
         <v>9</v>
       </c>
       <c r="F155" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G155" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H155" s="13"/>
       <c r="I155" s="11" t="str">
@@ -6636,12 +6639,12 @@
         <v>case "http-fetch" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="18.75" hidden="1">
+    <row r="156" spans="1:11" ht="18.75">
       <c r="A156" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="6" t="str">
@@ -6652,10 +6655,10 @@
         <v>9</v>
       </c>
       <c r="F156" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G156" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H156" s="13"/>
       <c r="I156" s="11" t="str">
@@ -6669,10 +6672,10 @@
     </row>
     <row r="157" spans="1:11" ht="18.75" hidden="1">
       <c r="A157" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="6" t="str">
@@ -6696,10 +6699,10 @@
     </row>
     <row r="158" spans="1:11" ht="18.75" hidden="1">
       <c r="A158" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="6" t="str">
@@ -6721,12 +6724,12 @@
         <v>case "shell" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="18.75" hidden="1">
+    <row r="159" spans="1:11" ht="18.75">
       <c r="A159" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="6" t="str">
@@ -6737,10 +6740,10 @@
         <v>9</v>
       </c>
       <c r="F159" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G159" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H159" s="13"/>
       <c r="I159" s="11" t="str">
@@ -6752,12 +6755,12 @@
         <v>case "upload-archive" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="18.75" hidden="1">
+    <row r="160" spans="1:11" ht="18.75">
       <c r="A160" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="6" t="str">
@@ -6768,10 +6771,10 @@
         <v>9</v>
       </c>
       <c r="F160" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H160" s="13"/>
       <c r="I160" s="11" t="str">
@@ -6783,12 +6786,12 @@
         <v>case "upload-pack" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="18.75" hidden="1">
+    <row r="161" spans="1:11" ht="18.75">
       <c r="A161" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B161" s="5" t="s">
         <v>178</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="6" t="str">
@@ -6799,10 +6802,10 @@
         <v>9</v>
       </c>
       <c r="F161" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G161" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H161" s="13"/>
       <c r="I161" s="11" t="str">
@@ -6814,12 +6817,12 @@
         <v>case "daemon" : Console.WriteLine("options個別解析: " + command);ret = cs.ScrapeBy(command); break;</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="18.75" hidden="1">
+    <row r="162" spans="1:11" ht="18.75">
       <c r="A162" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="6" t="str">
@@ -6830,10 +6833,10 @@
         <v>9</v>
       </c>
       <c r="F162" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G162" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H162" s="13"/>
       <c r="I162" s="11" t="str">
@@ -6847,10 +6850,10 @@
     </row>
     <row r="163" spans="1:11" ht="18.75">
       <c r="A163" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="6" t="str">
@@ -6861,10 +6864,10 @@
         <v>9</v>
       </c>
       <c r="F163" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G163" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H163" s="13"/>
       <c r="I163" s="11" t="str">
@@ -6880,12 +6883,12 @@
         <v>"http-backend",</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="18.75" hidden="1">
+    <row r="164" spans="1:11" ht="18.75">
       <c r="A164" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="6" t="str">
@@ -6896,10 +6899,10 @@
         <v>9</v>
       </c>
       <c r="F164" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G164" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H164" s="13"/>
       <c r="I164" s="11" t="str">
@@ -6913,10 +6916,10 @@
     </row>
     <row r="165" spans="1:11" ht="18.75">
       <c r="A165" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="6" t="str">
@@ -6927,10 +6930,10 @@
         <v>9</v>
       </c>
       <c r="F165" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G165" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H165" s="13"/>
       <c r="I165" s="11" t="str">
@@ -6948,11 +6951,11 @@
     </row>
     <row r="166" spans="1:11" ht="18.75">
       <c r="A166" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B166" s="5"/>
       <c r="C166" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D166" s="6" t="str">
         <f t="shared" si="8"/>
@@ -6962,10 +6965,10 @@
         <v>9</v>
       </c>
       <c r="F166" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G166" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H166" s="13"/>
       <c r="I166" s="11" t="str">
@@ -6984,12 +6987,7 @@
   </sheetData>
   <autoFilter ref="A1:I166" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="4">
-      <filters>
-        <filter val="〇"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters>
+      <filters blank="1">
         <filter val="〇"/>
       </filters>
     </filterColumn>
@@ -7015,107 +7013,107 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75">
       <c r="A1" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75">
       <c r="A5" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.75">
       <c r="A8" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75">
       <c r="A10" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75">
       <c r="B11" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18.75">
       <c r="A14" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75">
       <c r="B15" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18.75">
       <c r="B16" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18.75">
       <c r="A20" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18.75">
       <c r="B22" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75">
       <c r="B23" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75">
       <c r="B24" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18.75">
       <c r="A27" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -7144,66 +7142,66 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="A1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" t="s">
         <v>198</v>
-      </c>
-      <c r="E1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75">
       <c r="A2" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75">
       <c r="A3" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75">
       <c r="A4" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" t="s">
         <v>205</v>
-      </c>
-      <c r="E4" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75">
       <c r="A5" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75">
       <c r="A6" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -7234,34 +7232,34 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18">
       <c r="A1" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>213</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.75">
       <c r="A2" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B2" s="11" t="str">
         <f t="shared" ref="B2:B24" si="0">"${_"&amp;C2&amp;"}"</f>
         <v>${_-s}</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11" t="str">
@@ -7275,14 +7273,14 @@
     </row>
     <row r="3" spans="1:6" ht="18.75">
       <c r="A3" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B3" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--short}</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="str">
@@ -7296,14 +7294,14 @@
     </row>
     <row r="4" spans="1:6" ht="18.75">
       <c r="A4" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B4" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_-b}</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11" t="str">
@@ -7317,14 +7315,14 @@
     </row>
     <row r="5" spans="1:6" ht="18.75">
       <c r="A5" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B5" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--branch}</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="str">
@@ -7338,14 +7336,14 @@
     </row>
     <row r="6" spans="1:6" ht="18.75">
       <c r="A6" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--show-stash}</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11" t="str">
@@ -7359,17 +7357,17 @@
     </row>
     <row r="7" spans="1:6" ht="18.75">
       <c r="A7" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B7" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--porcelain}</v>
       </c>
       <c r="C7" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>222</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>223</v>
       </c>
       <c r="E7" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7382,14 +7380,14 @@
     </row>
     <row r="8" spans="1:6" ht="18.75">
       <c r="A8" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--long}</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="str">
@@ -7403,14 +7401,14 @@
     </row>
     <row r="9" spans="1:6" ht="18.75">
       <c r="A9" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_-v}</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11" t="str">
@@ -7424,14 +7422,14 @@
     </row>
     <row r="10" spans="1:6" ht="18.75">
       <c r="A10" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--verbose}</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11" t="str">
@@ -7445,17 +7443,17 @@
     </row>
     <row r="11" spans="1:6" ht="18.75">
       <c r="A11" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_-u}</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>228</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>229</v>
       </c>
       <c r="E11" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7468,17 +7466,17 @@
     </row>
     <row r="12" spans="1:6" ht="18.75">
       <c r="A12" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--untracked-files}</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>230</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>231</v>
       </c>
       <c r="E12" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7491,17 +7489,17 @@
     </row>
     <row r="13" spans="1:6" ht="18.75">
       <c r="A13" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--ignore-submodules}</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E13" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7514,14 +7512,14 @@
     </row>
     <row r="14" spans="1:6" ht="18.75">
       <c r="A14" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B14" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--ignored}</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="str">
@@ -7535,14 +7533,14 @@
     </row>
     <row r="15" spans="1:6" ht="18.75">
       <c r="A15" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B15" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_-z}</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="str">
@@ -7556,17 +7554,17 @@
     </row>
     <row r="16" spans="1:6" ht="18.75">
       <c r="A16" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B16" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--column}</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>236</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>237</v>
       </c>
       <c r="E16" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7579,14 +7577,14 @@
     </row>
     <row r="17" spans="1:6" ht="18.75">
       <c r="A17" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B17" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--no-column}</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="str">
@@ -7600,14 +7598,14 @@
     </row>
     <row r="18" spans="1:6" ht="18.75">
       <c r="A18" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B18" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--ahead-behind}</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11" t="str">
@@ -7621,14 +7619,14 @@
     </row>
     <row r="19" spans="1:6" ht="18.75">
       <c r="A19" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B19" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--no-ahead-behind}</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="str">
@@ -7642,14 +7640,14 @@
     </row>
     <row r="20" spans="1:6" ht="18.75">
       <c r="A20" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B20" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--renames}</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11" t="str">
@@ -7663,14 +7661,14 @@
     </row>
     <row r="21" spans="1:6" ht="18.75">
       <c r="A21" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B21" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--no-renames}</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="str">
@@ -7684,17 +7682,17 @@
     </row>
     <row r="22" spans="1:6" ht="18.75">
       <c r="A22" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B22" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--find-renames}</v>
       </c>
       <c r="C22" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>244</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>245</v>
       </c>
       <c r="E22" s="11" t="str">
         <f t="shared" si="1"/>
@@ -7707,14 +7705,14 @@
     </row>
     <row r="23" spans="1:6" ht="18.75">
       <c r="A23" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B23" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--no-lock-index}</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="str">
@@ -7728,14 +7726,14 @@
     </row>
     <row r="24" spans="1:6" ht="18.75">
       <c r="A24" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B24" s="11" t="str">
         <f t="shared" si="0"/>
         <v>${_--lock-index}</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11" t="str">
@@ -7769,32 +7767,32 @@
   <sheetData>
     <row r="3" spans="1:1" ht="18.75">
       <c r="A3" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="18.75">
       <c r="A4" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="18.75">
       <c r="A7" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="18.75">
       <c r="A8" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="18.75">
       <c r="A9" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="18.75">
       <c r="A10" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/Git-Complete/work/super_help/検証.xlsx
+++ b/Git-Complete/work/super_help/検証.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\Git-Complete\Git-Complete\work\super_help\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC44D5D-0739-4929-B7B2-EAA84B73A3FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D83AED1-E267-4ACF-A687-B480162CB2FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-41985" yWindow="2805" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1352,12 +1352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AMJ166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F113" sqref="F113"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1399,7 +1398,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" hidden="1">
+    <row r="2" spans="1:8" ht="18.75">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1424,7 +1423,7 @@
       </c>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" ht="18.75" hidden="1">
+    <row r="3" spans="1:8" ht="18.75">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1445,7 +1444,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" hidden="1">
+    <row r="4" spans="1:8" ht="18.75">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1497,7 +1496,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" hidden="1">
+    <row r="6" spans="1:8" ht="18.75">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1520,7 +1519,7 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="18.75" hidden="1">
+    <row r="7" spans="1:8" ht="18.75">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1543,7 +1542,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" ht="18.75" hidden="1">
+    <row r="8" spans="1:8" ht="18.75">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -1566,7 +1565,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="18.75" hidden="1">
+    <row r="9" spans="1:8" ht="18.75">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1589,7 +1588,7 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" hidden="1">
+    <row r="10" spans="1:8" ht="18.75">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -1612,7 +1611,7 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" ht="18.75" hidden="1">
+    <row r="11" spans="1:8" ht="18.75">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -1658,7 +1657,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" ht="18.75" hidden="1">
+    <row r="13" spans="1:8" ht="18.75">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
@@ -1681,7 +1680,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" ht="18.75" hidden="1">
+    <row r="14" spans="1:8" ht="18.75">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -1704,7 +1703,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" ht="18.75" hidden="1">
+    <row r="15" spans="1:8" ht="18.75">
       <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
@@ -1727,7 +1726,7 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" ht="18.75" hidden="1">
+    <row r="16" spans="1:8" ht="18.75">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
@@ -1746,7 +1745,7 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="18.75" hidden="1">
+    <row r="17" spans="1:8" ht="18.75">
       <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
@@ -1771,7 +1770,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="1:8" ht="18.75" hidden="1">
+    <row r="18" spans="1:8" ht="18.75">
       <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
@@ -1796,7 +1795,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="18.75" hidden="1">
+    <row r="19" spans="1:8" ht="18.75">
       <c r="A19" s="4" t="s">
         <v>28</v>
       </c>
@@ -1821,7 +1820,7 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:8" ht="18.75" hidden="1">
+    <row r="20" spans="1:8" ht="18.75">
       <c r="A20" s="4" t="s">
         <v>29</v>
       </c>
@@ -1846,7 +1845,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" ht="18.75" hidden="1">
+    <row r="21" spans="1:8" ht="18.75">
       <c r="A21" s="4" t="s">
         <v>30</v>
       </c>
@@ -1867,7 +1866,7 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="18.75" hidden="1">
+    <row r="22" spans="1:8" ht="18.75">
       <c r="A22" s="4" t="s">
         <v>32</v>
       </c>
@@ -1890,7 +1889,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="18.75" hidden="1">
+    <row r="23" spans="1:8" ht="18.75">
       <c r="A23" s="4" t="s">
         <v>33</v>
       </c>
@@ -1909,7 +1908,7 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:8" ht="18.75" hidden="1">
+    <row r="24" spans="1:8" ht="18.75">
       <c r="A24" s="4" t="s">
         <v>34</v>
       </c>
@@ -1932,7 +1931,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="18.75" hidden="1">
+    <row r="25" spans="1:8" ht="18.75">
       <c r="A25" s="4" t="s">
         <v>35</v>
       </c>
@@ -1955,7 +1954,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="18.75" hidden="1">
+    <row r="26" spans="1:8" ht="18.75">
       <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
@@ -1978,7 +1977,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="18.75" hidden="1">
+    <row r="27" spans="1:8" ht="18.75">
       <c r="A27" s="4" t="s">
         <v>37</v>
       </c>
@@ -2001,7 +2000,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="18.75" hidden="1">
+    <row r="28" spans="1:8" ht="18.75">
       <c r="A28" s="4" t="s">
         <v>38</v>
       </c>
@@ -2026,7 +2025,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="18.75" hidden="1">
+    <row r="29" spans="1:8" ht="18.75">
       <c r="A29" s="4" t="s">
         <v>40</v>
       </c>
@@ -2049,7 +2048,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="18.75" hidden="1">
+    <row r="30" spans="1:8" ht="18.75">
       <c r="A30" s="4" t="s">
         <v>41</v>
       </c>
@@ -2072,7 +2071,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="18.75" hidden="1">
+    <row r="31" spans="1:8" ht="18.75">
       <c r="A31" s="4" t="s">
         <v>42</v>
       </c>
@@ -2095,7 +2094,7 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="18.75" hidden="1">
+    <row r="32" spans="1:8" ht="18.75">
       <c r="A32" s="4" t="s">
         <v>43</v>
       </c>
@@ -2114,7 +2113,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="18.75" hidden="1">
+    <row r="33" spans="1:8" ht="18.75">
       <c r="A33" s="4" t="s">
         <v>44</v>
       </c>
@@ -2137,7 +2136,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="18.75" hidden="1">
+    <row r="34" spans="1:8" ht="18.75">
       <c r="A34" s="4" t="s">
         <v>45</v>
       </c>
@@ -2160,7 +2159,7 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="1:8" ht="18.75" hidden="1">
+    <row r="35" spans="1:8" ht="18.75">
       <c r="A35" s="4" t="s">
         <v>46</v>
       </c>
@@ -2183,7 +2182,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="1:8" ht="18.75" hidden="1">
+    <row r="36" spans="1:8" ht="18.75">
       <c r="A36" s="4" t="s">
         <v>47</v>
       </c>
@@ -2206,7 +2205,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="1:8" ht="18.75" hidden="1">
+    <row r="37" spans="1:8" ht="18.75">
       <c r="A37" s="4" t="s">
         <v>48</v>
       </c>
@@ -2229,7 +2228,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="1:8" ht="18.75" hidden="1">
+    <row r="38" spans="1:8" ht="18.75">
       <c r="A38" s="4" t="s">
         <v>49</v>
       </c>
@@ -2248,7 +2247,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="18.75" hidden="1">
+    <row r="39" spans="1:8" ht="18.75">
       <c r="A39" s="4" t="s">
         <v>51</v>
       </c>
@@ -2267,7 +2266,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="18.75" hidden="1">
+    <row r="40" spans="1:8" ht="18.75">
       <c r="A40" s="4" t="s">
         <v>52</v>
       </c>
@@ -2286,7 +2285,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="18.75" hidden="1">
+    <row r="41" spans="1:8" ht="18.75">
       <c r="A41" s="4" t="s">
         <v>53</v>
       </c>
@@ -2305,7 +2304,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="18.75" hidden="1">
+    <row r="42" spans="1:8" ht="18.75">
       <c r="A42" s="4" t="s">
         <v>54</v>
       </c>
@@ -2324,7 +2323,7 @@
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="18.75" hidden="1">
+    <row r="43" spans="1:8" ht="18.75">
       <c r="A43" s="4" t="s">
         <v>55</v>
       </c>
@@ -2343,7 +2342,7 @@
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="18.75" hidden="1">
+    <row r="44" spans="1:8" ht="18.75">
       <c r="A44" s="4" t="s">
         <v>56</v>
       </c>
@@ -2362,7 +2361,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" ht="18.75" hidden="1">
+    <row r="45" spans="1:8" ht="18.75">
       <c r="A45" s="4" t="s">
         <v>57</v>
       </c>
@@ -2381,7 +2380,7 @@
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="1:8" ht="18.75" hidden="1">
+    <row r="46" spans="1:8" ht="18.75">
       <c r="A46" s="4" t="s">
         <v>58</v>
       </c>
@@ -2400,7 +2399,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="1:8" ht="18.75" hidden="1">
+    <row r="47" spans="1:8" ht="18.75">
       <c r="A47" s="4" t="s">
         <v>59</v>
       </c>
@@ -2419,7 +2418,7 @@
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
     </row>
-    <row r="48" spans="1:8" ht="18.75" hidden="1">
+    <row r="48" spans="1:8" ht="18.75">
       <c r="A48" s="4" t="s">
         <v>60</v>
       </c>
@@ -2438,7 +2437,7 @@
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
     </row>
-    <row r="49" spans="1:8" ht="18.75" hidden="1">
+    <row r="49" spans="1:8" ht="18.75">
       <c r="A49" s="4" t="s">
         <v>61</v>
       </c>
@@ -2457,7 +2456,7 @@
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="1:8" ht="18.75" hidden="1">
+    <row r="50" spans="1:8" ht="18.75">
       <c r="A50" s="4" t="s">
         <v>62</v>
       </c>
@@ -2476,7 +2475,7 @@
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
     </row>
-    <row r="51" spans="1:8" ht="18.75" hidden="1">
+    <row r="51" spans="1:8" ht="18.75">
       <c r="A51" s="4" t="s">
         <v>63</v>
       </c>
@@ -2495,7 +2494,7 @@
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
     </row>
-    <row r="52" spans="1:8" ht="18.75" hidden="1">
+    <row r="52" spans="1:8" ht="18.75">
       <c r="A52" s="4" t="s">
         <v>217</v>
       </c>
@@ -2514,7 +2513,7 @@
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
     </row>
-    <row r="53" spans="1:8" ht="18.75" hidden="1">
+    <row r="53" spans="1:8" ht="18.75">
       <c r="A53" s="4" t="s">
         <v>64</v>
       </c>
@@ -2533,7 +2532,7 @@
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
     </row>
-    <row r="54" spans="1:8" ht="18.75" hidden="1">
+    <row r="54" spans="1:8" ht="18.75">
       <c r="A54" s="4" t="s">
         <v>65</v>
       </c>
@@ -2552,7 +2551,7 @@
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
     </row>
-    <row r="55" spans="1:8" ht="18.75" hidden="1">
+    <row r="55" spans="1:8" ht="18.75">
       <c r="A55" s="4" t="s">
         <v>66</v>
       </c>
@@ -2571,7 +2570,7 @@
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
     </row>
-    <row r="56" spans="1:8" ht="18.75" hidden="1">
+    <row r="56" spans="1:8" ht="18.75">
       <c r="A56" s="4" t="s">
         <v>67</v>
       </c>
@@ -2596,7 +2595,7 @@
       </c>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="1:8" ht="18.75" hidden="1">
+    <row r="57" spans="1:8" ht="18.75">
       <c r="A57" s="4" t="s">
         <v>69</v>
       </c>
@@ -2621,7 +2620,7 @@
       </c>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="1:8" ht="18.75" hidden="1">
+    <row r="58" spans="1:8" ht="18.75">
       <c r="A58" s="4" t="s">
         <v>70</v>
       </c>
@@ -2646,7 +2645,7 @@
       </c>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="1:8" ht="18.75" hidden="1">
+    <row r="59" spans="1:8" ht="18.75">
       <c r="A59" s="4" t="s">
         <v>71</v>
       </c>
@@ -2671,7 +2670,7 @@
       </c>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="1:8" ht="18.75" hidden="1">
+    <row r="60" spans="1:8" ht="18.75">
       <c r="A60" s="4" t="s">
         <v>72</v>
       </c>
@@ -2696,7 +2695,7 @@
       </c>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="1:8" ht="18.75" hidden="1">
+    <row r="61" spans="1:8" ht="18.75">
       <c r="A61" s="4" t="s">
         <v>73</v>
       </c>
@@ -2721,7 +2720,7 @@
       </c>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="1:8" ht="18.75" hidden="1">
+    <row r="62" spans="1:8" ht="18.75">
       <c r="A62" s="4" t="s">
         <v>74</v>
       </c>
@@ -2746,7 +2745,7 @@
       </c>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" spans="1:8" ht="18.75" hidden="1">
+    <row r="63" spans="1:8" ht="18.75">
       <c r="A63" s="4" t="s">
         <v>76</v>
       </c>
@@ -2771,7 +2770,7 @@
       </c>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" spans="1:8" ht="18.75" hidden="1">
+    <row r="64" spans="1:8" ht="18.75">
       <c r="A64" s="4" t="s">
         <v>77</v>
       </c>
@@ -2792,7 +2791,7 @@
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
     </row>
-    <row r="65" spans="1:8" ht="18.75" hidden="1">
+    <row r="65" spans="1:8" ht="18.75">
       <c r="A65" s="4" t="s">
         <v>78</v>
       </c>
@@ -2817,7 +2816,7 @@
       </c>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" spans="1:8" ht="18.75" hidden="1">
+    <row r="66" spans="1:8" ht="18.75">
       <c r="A66" s="4" t="s">
         <v>79</v>
       </c>
@@ -2842,7 +2841,7 @@
       </c>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="1:8" ht="18.75" hidden="1">
+    <row r="67" spans="1:8" ht="18.75">
       <c r="A67" s="4" t="s">
         <v>80</v>
       </c>
@@ -2867,7 +2866,7 @@
       </c>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" spans="1:8" ht="18.75" hidden="1">
+    <row r="68" spans="1:8" ht="18.75">
       <c r="A68" s="4" t="s">
         <v>81</v>
       </c>
@@ -2892,7 +2891,7 @@
       </c>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" spans="1:8" ht="18.75" hidden="1">
+    <row r="69" spans="1:8" ht="18.75">
       <c r="A69" s="4" t="s">
         <v>82</v>
       </c>
@@ -2915,7 +2914,7 @@
       </c>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" spans="1:8" ht="18.75" hidden="1">
+    <row r="70" spans="1:8" ht="18.75">
       <c r="A70" s="4" t="s">
         <v>83</v>
       </c>
@@ -2938,7 +2937,7 @@
       </c>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" spans="1:8" ht="18.75" hidden="1">
+    <row r="71" spans="1:8" ht="18.75">
       <c r="A71" s="4" t="s">
         <v>84</v>
       </c>
@@ -2961,7 +2960,7 @@
       </c>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" spans="1:8" ht="18.75" hidden="1">
+    <row r="72" spans="1:8" ht="18.75">
       <c r="A72" s="4" t="s">
         <v>85</v>
       </c>
@@ -2984,7 +2983,7 @@
       </c>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="1:8" ht="18.75" hidden="1">
+    <row r="73" spans="1:8" ht="18.75">
       <c r="A73" s="4" t="s">
         <v>86</v>
       </c>
@@ -3007,7 +3006,7 @@
       </c>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" spans="1:8" ht="18.75" hidden="1">
+    <row r="74" spans="1:8" ht="18.75">
       <c r="A74" s="4" t="s">
         <v>87</v>
       </c>
@@ -3030,7 +3029,7 @@
       </c>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="1:8" ht="18.75" hidden="1">
+    <row r="75" spans="1:8" ht="18.75">
       <c r="A75" s="4" t="s">
         <v>88</v>
       </c>
@@ -3053,7 +3052,7 @@
       </c>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" spans="1:8" ht="18.75" hidden="1">
+    <row r="76" spans="1:8" ht="18.75">
       <c r="A76" s="4" t="s">
         <v>89</v>
       </c>
@@ -3076,7 +3075,7 @@
       </c>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="1:8" ht="18.75" hidden="1">
+    <row r="77" spans="1:8" ht="18.75">
       <c r="A77" s="4" t="s">
         <v>90</v>
       </c>
@@ -3099,7 +3098,7 @@
       </c>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="1:8" ht="18.75" hidden="1">
+    <row r="78" spans="1:8" ht="18.75">
       <c r="A78" s="4" t="s">
         <v>91</v>
       </c>
@@ -3122,7 +3121,7 @@
       </c>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" spans="1:8" ht="18.75" hidden="1">
+    <row r="79" spans="1:8" ht="18.75">
       <c r="A79" s="4" t="s">
         <v>92</v>
       </c>
@@ -3145,7 +3144,7 @@
       </c>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" spans="1:8" ht="18.75" hidden="1">
+    <row r="80" spans="1:8" ht="18.75">
       <c r="A80" s="4" t="s">
         <v>93</v>
       </c>
@@ -3168,7 +3167,7 @@
       </c>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="1:8" ht="18.75" hidden="1">
+    <row r="81" spans="1:8" ht="18.75">
       <c r="A81" s="4" t="s">
         <v>94</v>
       </c>
@@ -3214,7 +3213,7 @@
       </c>
       <c r="H82" s="9"/>
     </row>
-    <row r="83" spans="1:8" ht="18.75" hidden="1">
+    <row r="83" spans="1:8" ht="18.75">
       <c r="A83" s="4" t="s">
         <v>96</v>
       </c>
@@ -3237,7 +3236,7 @@
       </c>
       <c r="H83" s="9"/>
     </row>
-    <row r="84" spans="1:8" ht="18.75" hidden="1">
+    <row r="84" spans="1:8" ht="18.75">
       <c r="A84" s="4" t="s">
         <v>97</v>
       </c>
@@ -3260,7 +3259,7 @@
       </c>
       <c r="H84" s="9"/>
     </row>
-    <row r="85" spans="1:8" ht="18.75" hidden="1">
+    <row r="85" spans="1:8" ht="18.75">
       <c r="A85" s="4" t="s">
         <v>98</v>
       </c>
@@ -3283,7 +3282,7 @@
       </c>
       <c r="H85" s="9"/>
     </row>
-    <row r="86" spans="1:8" ht="18.75" hidden="1">
+    <row r="86" spans="1:8" ht="18.75">
       <c r="A86" s="4" t="s">
         <v>99</v>
       </c>
@@ -3306,7 +3305,7 @@
       </c>
       <c r="H86" s="9"/>
     </row>
-    <row r="87" spans="1:8" ht="18.75" hidden="1">
+    <row r="87" spans="1:8" ht="18.75">
       <c r="A87" s="4" t="s">
         <v>100</v>
       </c>
@@ -3329,7 +3328,7 @@
       </c>
       <c r="H87" s="9"/>
     </row>
-    <row r="88" spans="1:8" ht="18.75" hidden="1">
+    <row r="88" spans="1:8" ht="18.75">
       <c r="A88" s="4" t="s">
         <v>101</v>
       </c>
@@ -3352,7 +3351,7 @@
       </c>
       <c r="H88" s="9"/>
     </row>
-    <row r="89" spans="1:8" ht="18.75" hidden="1">
+    <row r="89" spans="1:8" ht="18.75">
       <c r="A89" s="4" t="s">
         <v>102</v>
       </c>
@@ -3375,7 +3374,7 @@
       </c>
       <c r="H89" s="9"/>
     </row>
-    <row r="90" spans="1:8" ht="18.75" hidden="1">
+    <row r="90" spans="1:8" ht="18.75">
       <c r="A90" s="4" t="s">
         <v>103</v>
       </c>
@@ -3398,7 +3397,7 @@
       </c>
       <c r="H90" s="9"/>
     </row>
-    <row r="91" spans="1:8" ht="18.75" hidden="1">
+    <row r="91" spans="1:8" ht="18.75">
       <c r="A91" s="4" t="s">
         <v>104</v>
       </c>
@@ -3444,7 +3443,7 @@
       </c>
       <c r="H92" s="9"/>
     </row>
-    <row r="93" spans="1:8" ht="18.75" hidden="1">
+    <row r="93" spans="1:8" ht="18.75">
       <c r="A93" s="4" t="s">
         <v>106</v>
       </c>
@@ -3467,7 +3466,7 @@
       </c>
       <c r="H93" s="9"/>
     </row>
-    <row r="94" spans="1:8" ht="18.75" hidden="1">
+    <row r="94" spans="1:8" ht="18.75">
       <c r="A94" s="4" t="s">
         <v>107</v>
       </c>
@@ -3490,7 +3489,7 @@
       </c>
       <c r="H94" s="9"/>
     </row>
-    <row r="95" spans="1:8" ht="18.75" hidden="1">
+    <row r="95" spans="1:8" ht="18.75">
       <c r="A95" s="4" t="s">
         <v>108</v>
       </c>
@@ -3513,7 +3512,7 @@
       </c>
       <c r="H95" s="9"/>
     </row>
-    <row r="96" spans="1:8" ht="18.75" hidden="1">
+    <row r="96" spans="1:8" ht="18.75">
       <c r="A96" s="4" t="s">
         <v>109</v>
       </c>
@@ -3536,7 +3535,7 @@
       </c>
       <c r="H96" s="9"/>
     </row>
-    <row r="97" spans="1:8" ht="18.75" hidden="1">
+    <row r="97" spans="1:8" ht="18.75">
       <c r="A97" s="4" t="s">
         <v>2</v>
       </c>
@@ -3559,7 +3558,7 @@
       </c>
       <c r="H97" s="9"/>
     </row>
-    <row r="98" spans="1:8" ht="18.75" hidden="1">
+    <row r="98" spans="1:8" ht="18.75">
       <c r="A98" s="4" t="s">
         <v>110</v>
       </c>
@@ -3584,7 +3583,7 @@
       </c>
       <c r="H98" s="9"/>
     </row>
-    <row r="99" spans="1:8" ht="18.75" hidden="1">
+    <row r="99" spans="1:8" ht="18.75">
       <c r="A99" s="4" t="s">
         <v>216</v>
       </c>
@@ -3609,7 +3608,7 @@
       </c>
       <c r="H99" s="9"/>
     </row>
-    <row r="100" spans="1:8" ht="18.75" hidden="1">
+    <row r="100" spans="1:8" ht="18.75">
       <c r="A100" s="4" t="s">
         <v>112</v>
       </c>
@@ -3634,7 +3633,7 @@
       </c>
       <c r="H100" s="9"/>
     </row>
-    <row r="101" spans="1:8" ht="18.75" hidden="1">
+    <row r="101" spans="1:8" ht="18.75">
       <c r="A101" s="4" t="s">
         <v>113</v>
       </c>
@@ -3657,7 +3656,7 @@
       </c>
       <c r="H101" s="9"/>
     </row>
-    <row r="102" spans="1:8" ht="18.75" hidden="1">
+    <row r="102" spans="1:8" ht="18.75">
       <c r="A102" s="4" t="s">
         <v>114</v>
       </c>
@@ -3680,7 +3679,7 @@
       </c>
       <c r="H102" s="9"/>
     </row>
-    <row r="103" spans="1:8" ht="18.75" hidden="1">
+    <row r="103" spans="1:8" ht="18.75">
       <c r="A103" s="4" t="s">
         <v>115</v>
       </c>
@@ -3703,7 +3702,7 @@
       </c>
       <c r="H103" s="9"/>
     </row>
-    <row r="104" spans="1:8" ht="18.75" hidden="1">
+    <row r="104" spans="1:8" ht="18.75">
       <c r="A104" s="4" t="s">
         <v>116</v>
       </c>
@@ -3726,7 +3725,7 @@
       </c>
       <c r="H104" s="9"/>
     </row>
-    <row r="105" spans="1:8" ht="18.75" hidden="1">
+    <row r="105" spans="1:8" ht="18.75">
       <c r="A105" s="4" t="s">
         <v>117</v>
       </c>
@@ -3749,7 +3748,7 @@
       </c>
       <c r="H105" s="9"/>
     </row>
-    <row r="106" spans="1:8" ht="18.75" hidden="1">
+    <row r="106" spans="1:8" ht="18.75">
       <c r="A106" s="4" t="s">
         <v>118</v>
       </c>
@@ -3772,7 +3771,7 @@
       </c>
       <c r="H106" s="9"/>
     </row>
-    <row r="107" spans="1:8" ht="18.75" hidden="1">
+    <row r="107" spans="1:8" ht="18.75">
       <c r="A107" s="4" t="s">
         <v>119</v>
       </c>
@@ -3795,7 +3794,7 @@
       </c>
       <c r="H107" s="9"/>
     </row>
-    <row r="108" spans="1:8" ht="18.75" hidden="1">
+    <row r="108" spans="1:8" ht="18.75">
       <c r="A108" s="4" t="s">
         <v>120</v>
       </c>
@@ -3818,7 +3817,7 @@
       </c>
       <c r="H108" s="9"/>
     </row>
-    <row r="109" spans="1:8" ht="18.75" hidden="1">
+    <row r="109" spans="1:8" ht="18.75">
       <c r="A109" s="4" t="s">
         <v>121</v>
       </c>
@@ -3841,7 +3840,7 @@
       </c>
       <c r="H109" s="9"/>
     </row>
-    <row r="110" spans="1:8" ht="18.75" hidden="1">
+    <row r="110" spans="1:8" ht="18.75">
       <c r="A110" s="4" t="s">
         <v>122</v>
       </c>
@@ -3864,7 +3863,7 @@
       </c>
       <c r="H110" s="9"/>
     </row>
-    <row r="111" spans="1:8" ht="18.75" hidden="1">
+    <row r="111" spans="1:8" ht="18.75">
       <c r="A111" s="4" t="s">
         <v>123</v>
       </c>
@@ -3887,7 +3886,7 @@
       </c>
       <c r="H111" s="9"/>
     </row>
-    <row r="112" spans="1:8" ht="18.75" hidden="1">
+    <row r="112" spans="1:8" ht="18.75">
       <c r="A112" s="4" t="s">
         <v>124</v>
       </c>
@@ -3933,7 +3932,7 @@
       </c>
       <c r="H113" s="9"/>
     </row>
-    <row r="114" spans="1:8" ht="18.75" hidden="1">
+    <row r="114" spans="1:8" ht="18.75">
       <c r="A114" s="4" t="s">
         <v>126</v>
       </c>
@@ -3956,7 +3955,7 @@
       </c>
       <c r="H114" s="9"/>
     </row>
-    <row r="115" spans="1:8" ht="18.75" hidden="1">
+    <row r="115" spans="1:8" ht="18.75">
       <c r="A115" s="4" t="s">
         <v>127</v>
       </c>
@@ -3979,7 +3978,7 @@
       </c>
       <c r="H115" s="9"/>
     </row>
-    <row r="116" spans="1:8" ht="18.75" hidden="1">
+    <row r="116" spans="1:8" ht="18.75">
       <c r="A116" s="4" t="s">
         <v>128</v>
       </c>
@@ -4002,7 +4001,7 @@
       </c>
       <c r="H116" s="9"/>
     </row>
-    <row r="117" spans="1:8" ht="18.75" hidden="1">
+    <row r="117" spans="1:8" ht="18.75">
       <c r="A117" s="4" t="s">
         <v>129</v>
       </c>
@@ -4025,7 +4024,7 @@
       </c>
       <c r="H117" s="9"/>
     </row>
-    <row r="118" spans="1:8" ht="18.75" hidden="1">
+    <row r="118" spans="1:8" ht="18.75">
       <c r="A118" s="4" t="s">
         <v>130</v>
       </c>
@@ -4050,7 +4049,7 @@
       </c>
       <c r="H118" s="9"/>
     </row>
-    <row r="119" spans="1:8" ht="18.75" hidden="1">
+    <row r="119" spans="1:8" ht="18.75">
       <c r="A119" s="4" t="s">
         <v>132</v>
       </c>
@@ -4075,7 +4074,7 @@
       </c>
       <c r="H119" s="9"/>
     </row>
-    <row r="120" spans="1:8" ht="18.75" hidden="1">
+    <row r="120" spans="1:8" ht="18.75">
       <c r="A120" s="4" t="s">
         <v>133</v>
       </c>
@@ -4100,7 +4099,7 @@
       </c>
       <c r="H120" s="9"/>
     </row>
-    <row r="121" spans="1:8" ht="18.75" hidden="1">
+    <row r="121" spans="1:8" ht="18.75">
       <c r="A121" s="4" t="s">
         <v>134</v>
       </c>
@@ -4125,7 +4124,7 @@
       </c>
       <c r="H121" s="9"/>
     </row>
-    <row r="122" spans="1:8" ht="18.75" hidden="1">
+    <row r="122" spans="1:8" ht="18.75">
       <c r="A122" s="4" t="s">
         <v>135</v>
       </c>
@@ -4150,7 +4149,7 @@
       </c>
       <c r="H122" s="9"/>
     </row>
-    <row r="123" spans="1:8" ht="18.75" hidden="1">
+    <row r="123" spans="1:8" ht="18.75">
       <c r="A123" s="4" t="s">
         <v>136</v>
       </c>
@@ -4175,7 +4174,7 @@
       </c>
       <c r="H123" s="9"/>
     </row>
-    <row r="124" spans="1:8" ht="18.75" hidden="1">
+    <row r="124" spans="1:8" ht="18.75">
       <c r="A124" s="4" t="s">
         <v>137</v>
       </c>
@@ -4200,7 +4199,7 @@
       </c>
       <c r="H124" s="9"/>
     </row>
-    <row r="125" spans="1:8" ht="18.75" hidden="1">
+    <row r="125" spans="1:8" ht="18.75">
       <c r="A125" s="4" t="s">
         <v>138</v>
       </c>
@@ -4223,7 +4222,7 @@
       </c>
       <c r="H125" s="9"/>
     </row>
-    <row r="126" spans="1:8" ht="18.75" hidden="1">
+    <row r="126" spans="1:8" ht="18.75">
       <c r="A126" s="4" t="s">
         <v>139</v>
       </c>
@@ -4246,7 +4245,7 @@
       </c>
       <c r="H126" s="9"/>
     </row>
-    <row r="127" spans="1:8" ht="18.75" hidden="1">
+    <row r="127" spans="1:8" ht="18.75">
       <c r="A127" s="4" t="s">
         <v>140</v>
       </c>
@@ -4269,7 +4268,7 @@
       </c>
       <c r="H127" s="9"/>
     </row>
-    <row r="128" spans="1:8" ht="18.75" hidden="1">
+    <row r="128" spans="1:8" ht="18.75">
       <c r="A128" s="4" t="s">
         <v>141</v>
       </c>
@@ -4292,7 +4291,7 @@
       </c>
       <c r="H128" s="9"/>
     </row>
-    <row r="129" spans="1:8" ht="18.75" hidden="1">
+    <row r="129" spans="1:8" ht="18.75">
       <c r="A129" s="4" t="s">
         <v>142</v>
       </c>
@@ -4315,7 +4314,7 @@
       </c>
       <c r="H129" s="9"/>
     </row>
-    <row r="130" spans="1:8" ht="18.75" hidden="1">
+    <row r="130" spans="1:8" ht="18.75">
       <c r="A130" s="4" t="s">
         <v>143</v>
       </c>
@@ -4338,7 +4337,7 @@
       </c>
       <c r="H130" s="9"/>
     </row>
-    <row r="131" spans="1:8" ht="18.75" hidden="1">
+    <row r="131" spans="1:8" ht="18.75">
       <c r="A131" s="4" t="s">
         <v>144</v>
       </c>
@@ -4361,7 +4360,7 @@
       </c>
       <c r="H131" s="9"/>
     </row>
-    <row r="132" spans="1:8" ht="18.75" hidden="1">
+    <row r="132" spans="1:8" ht="18.75">
       <c r="A132" s="4" t="s">
         <v>145</v>
       </c>
@@ -4384,7 +4383,7 @@
       </c>
       <c r="H132" s="9"/>
     </row>
-    <row r="133" spans="1:8" ht="18.75" hidden="1">
+    <row r="133" spans="1:8" ht="18.75">
       <c r="A133" s="4" t="s">
         <v>146</v>
       </c>
@@ -4407,7 +4406,7 @@
       </c>
       <c r="H133" s="9"/>
     </row>
-    <row r="134" spans="1:8" ht="18.75" hidden="1">
+    <row r="134" spans="1:8" ht="18.75">
       <c r="A134" s="4" t="s">
         <v>147</v>
       </c>
@@ -4453,7 +4452,7 @@
       </c>
       <c r="H135" s="9"/>
     </row>
-    <row r="136" spans="1:8" ht="18.75" hidden="1">
+    <row r="136" spans="1:8" ht="18.75">
       <c r="A136" s="4" t="s">
         <v>149</v>
       </c>
@@ -4476,7 +4475,7 @@
       </c>
       <c r="H136" s="9"/>
     </row>
-    <row r="137" spans="1:8" ht="18.75" hidden="1">
+    <row r="137" spans="1:8" ht="18.75">
       <c r="A137" s="4" t="s">
         <v>150</v>
       </c>
@@ -4501,7 +4500,7 @@
       </c>
       <c r="H137" s="9"/>
     </row>
-    <row r="138" spans="1:8" ht="18.75" hidden="1">
+    <row r="138" spans="1:8" ht="18.75">
       <c r="A138" s="4" t="s">
         <v>152</v>
       </c>
@@ -4526,7 +4525,7 @@
       </c>
       <c r="H138" s="9"/>
     </row>
-    <row r="139" spans="1:8" ht="18.75" hidden="1">
+    <row r="139" spans="1:8" ht="18.75">
       <c r="A139" s="4" t="s">
         <v>153</v>
       </c>
@@ -4551,7 +4550,7 @@
       </c>
       <c r="H139" s="9"/>
     </row>
-    <row r="140" spans="1:8" ht="18.75" hidden="1">
+    <row r="140" spans="1:8" ht="18.75">
       <c r="A140" s="4" t="s">
         <v>154</v>
       </c>
@@ -4576,7 +4575,7 @@
       </c>
       <c r="H140" s="9"/>
     </row>
-    <row r="141" spans="1:8" ht="18.75" hidden="1">
+    <row r="141" spans="1:8" ht="18.75">
       <c r="A141" s="4" t="s">
         <v>155</v>
       </c>
@@ -4601,7 +4600,7 @@
       </c>
       <c r="H141" s="9"/>
     </row>
-    <row r="142" spans="1:8" ht="18.75" hidden="1">
+    <row r="142" spans="1:8" ht="18.75">
       <c r="A142" s="4" t="s">
         <v>156</v>
       </c>
@@ -4622,7 +4621,7 @@
       <c r="G142" s="8"/>
       <c r="H142" s="8"/>
     </row>
-    <row r="143" spans="1:8" ht="18.75" hidden="1">
+    <row r="143" spans="1:8" ht="18.75">
       <c r="A143" s="4" t="s">
         <v>157</v>
       </c>
@@ -4645,7 +4644,7 @@
       </c>
       <c r="H143" s="9"/>
     </row>
-    <row r="144" spans="1:8" ht="18.75" hidden="1">
+    <row r="144" spans="1:8" ht="18.75">
       <c r="A144" s="4" t="s">
         <v>158</v>
       </c>
@@ -4668,7 +4667,7 @@
       </c>
       <c r="H144" s="9"/>
     </row>
-    <row r="145" spans="1:8" ht="18.75" hidden="1">
+    <row r="145" spans="1:8" ht="18.75">
       <c r="A145" s="4" t="s">
         <v>159</v>
       </c>
@@ -4714,7 +4713,7 @@
       </c>
       <c r="H146" s="9"/>
     </row>
-    <row r="147" spans="1:8" ht="18.75" hidden="1">
+    <row r="147" spans="1:8" ht="18.75">
       <c r="A147" s="4" t="s">
         <v>161</v>
       </c>
@@ -4733,7 +4732,7 @@
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
     </row>
-    <row r="148" spans="1:8" ht="18.75" hidden="1">
+    <row r="148" spans="1:8" ht="18.75">
       <c r="A148" s="4" t="s">
         <v>162</v>
       </c>
@@ -4752,7 +4751,7 @@
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
     </row>
-    <row r="149" spans="1:8" ht="18.75" hidden="1">
+    <row r="149" spans="1:8" ht="18.75">
       <c r="A149" s="4" t="s">
         <v>163</v>
       </c>
@@ -4775,7 +4774,7 @@
       </c>
       <c r="H149" s="9"/>
     </row>
-    <row r="150" spans="1:8" ht="18.75" hidden="1">
+    <row r="150" spans="1:8" ht="18.75">
       <c r="A150" s="4" t="s">
         <v>164</v>
       </c>
@@ -4798,7 +4797,7 @@
       </c>
       <c r="H150" s="9"/>
     </row>
-    <row r="151" spans="1:8" ht="18.75" hidden="1">
+    <row r="151" spans="1:8" ht="18.75">
       <c r="A151" s="4" t="s">
         <v>165</v>
       </c>
@@ -4821,7 +4820,7 @@
       </c>
       <c r="H151" s="9"/>
     </row>
-    <row r="152" spans="1:8" ht="18.75" hidden="1">
+    <row r="152" spans="1:8" ht="18.75">
       <c r="A152" s="4" t="s">
         <v>166</v>
       </c>
@@ -4840,7 +4839,7 @@
       <c r="G152" s="8"/>
       <c r="H152" s="8"/>
     </row>
-    <row r="153" spans="1:8" ht="18.75" hidden="1">
+    <row r="153" spans="1:8" ht="18.75">
       <c r="A153" s="4" t="s">
         <v>167</v>
       </c>
@@ -4863,7 +4862,7 @@
       </c>
       <c r="H153" s="9"/>
     </row>
-    <row r="154" spans="1:8" ht="18.75" hidden="1">
+    <row r="154" spans="1:8" ht="18.75">
       <c r="A154" s="4" t="s">
         <v>168</v>
       </c>
@@ -4888,7 +4887,7 @@
       </c>
       <c r="H154" s="9"/>
     </row>
-    <row r="155" spans="1:8" ht="18.75" hidden="1">
+    <row r="155" spans="1:8" ht="18.75">
       <c r="A155" s="4" t="s">
         <v>170</v>
       </c>
@@ -4911,7 +4910,7 @@
       </c>
       <c r="H155" s="9"/>
     </row>
-    <row r="156" spans="1:8" ht="18.75" hidden="1">
+    <row r="156" spans="1:8" ht="18.75">
       <c r="A156" s="4" t="s">
         <v>171</v>
       </c>
@@ -4934,7 +4933,7 @@
       </c>
       <c r="H156" s="9"/>
     </row>
-    <row r="157" spans="1:8" ht="18.75" hidden="1">
+    <row r="157" spans="1:8" ht="18.75">
       <c r="A157" s="4" t="s">
         <v>172</v>
       </c>
@@ -4953,7 +4952,7 @@
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
     </row>
-    <row r="158" spans="1:8" ht="18.75" hidden="1">
+    <row r="158" spans="1:8" ht="18.75">
       <c r="A158" s="4" t="s">
         <v>173</v>
       </c>
@@ -4972,7 +4971,7 @@
       <c r="G158" s="8"/>
       <c r="H158" s="8"/>
     </row>
-    <row r="159" spans="1:8" ht="18.75" hidden="1">
+    <row r="159" spans="1:8" ht="18.75">
       <c r="A159" s="4" t="s">
         <v>174</v>
       </c>
@@ -4995,7 +4994,7 @@
       </c>
       <c r="H159" s="9"/>
     </row>
-    <row r="160" spans="1:8" ht="18.75" hidden="1">
+    <row r="160" spans="1:8" ht="18.75">
       <c r="A160" s="4" t="s">
         <v>175</v>
       </c>
@@ -5018,7 +5017,7 @@
       </c>
       <c r="H160" s="9"/>
     </row>
-    <row r="161" spans="1:8" ht="18.75" hidden="1">
+    <row r="161" spans="1:8" ht="18.75">
       <c r="A161" s="4" t="s">
         <v>176</v>
       </c>
@@ -5041,7 +5040,7 @@
       </c>
       <c r="H161" s="9"/>
     </row>
-    <row r="162" spans="1:8" ht="18.75" hidden="1">
+    <row r="162" spans="1:8" ht="18.75">
       <c r="A162" s="4" t="s">
         <v>178</v>
       </c>
@@ -5064,7 +5063,7 @@
       </c>
       <c r="H162" s="9"/>
     </row>
-    <row r="163" spans="1:8" ht="18.75" hidden="1">
+    <row r="163" spans="1:8" ht="18.75">
       <c r="A163" s="4" t="s">
         <v>179</v>
       </c>
@@ -5087,7 +5086,7 @@
       </c>
       <c r="H163" s="9"/>
     </row>
-    <row r="164" spans="1:8" ht="18.75" hidden="1">
+    <row r="164" spans="1:8" ht="18.75">
       <c r="A164" s="4" t="s">
         <v>180</v>
       </c>
@@ -5110,7 +5109,7 @@
       </c>
       <c r="H164" s="9"/>
     </row>
-    <row r="165" spans="1:8" ht="18.75" hidden="1">
+    <row r="165" spans="1:8" ht="18.75">
       <c r="A165" s="4" t="s">
         <v>181</v>
       </c>
@@ -5133,7 +5132,7 @@
       </c>
       <c r="H165" s="9"/>
     </row>
-    <row r="166" spans="1:8" ht="18.75" hidden="1">
+    <row r="166" spans="1:8" ht="18.75">
       <c r="A166" s="4" t="s">
         <v>182</v>
       </c>
@@ -5157,13 +5156,7 @@
       <c r="H166" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H166" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="〇"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H166" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
